--- a/assets/findings/2024-02-24-findings.xlsx
+++ b/assets/findings/2024-02-24-findings.xlsx
@@ -9,9 +9,10 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="93" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="COG-12" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OVER-84" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="84" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="93" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="COG-12" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OVER-84" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -424,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,24 +436,25 @@
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="32.4" customWidth="1" min="2" max="2"/>
     <col width="28.8" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="37.2" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="37.2" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -473,90 +475,95 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>award_reference</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>reference_number</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>aln</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>cog_over</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>federal_program_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>amount_expended</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>is_direct</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>is_major</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>is_passthrough_award</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>passthrough_amount</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>is_modified_opinion</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>is_other_matters</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>is_material_weakness</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_significant_deficiency</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>is_other_findings</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>is_questioned_costs</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>is_repeat_finding</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>prior_finding_ref_numbers</t>
         </is>
@@ -564,84 +571,82 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-06-GSAFAC-0000026504</t>
+          <t>2023-06-GSAFAC-0000024938</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bloomfield College</t>
+          <t>One City Schools, Inc.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AWARD-0002</t>
+          <t>R1LELA68EHL8</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-001</t>
+          <t>AWARD-0001</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>2023-004</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>10.553</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>SCHOOL BREAKFAST PROGRAM</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v>97723</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="J2" t="n">
+        <v>4000</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -649,97 +654,98 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>2022-001</t>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-06-GSAFAC-0000026504</t>
+          <t>2023-06-GSAFAC-0000024938</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Bloomfield College</t>
+          <t>One City Schools, Inc.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AWARD-0004</t>
+          <t>R1LELA68EHL8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-001</t>
+          <t>AWARD-0002</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10.555</t>
+          <t>2023-004</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>10.553</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>45998</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SCHOOL BREAKFAST PROGRAM</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>97723</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -747,97 +753,98 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>2022-001</t>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-06-GSAFAC-0000026504</t>
+          <t>2023-06-GSAFAC-0000024938</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Bloomfield College</t>
+          <t>One City Schools, Inc.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AWARD-0002</t>
+          <t>R1LELA68EHL8</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023-002</t>
+          <t>AWARD-0003</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10.553</t>
+          <t>2023-004</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>10.555</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>SCHOOL BREAKFAST PROGRAM</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>97723</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>196953</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -850,7 +857,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -858,84 +868,82 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-06-GSAFAC-0000026504</t>
+          <t>2023-06-GSAFAC-0000024938</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bloomfield College</t>
+          <t>One City Schools, Inc.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>AWARD-0004</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2023-002</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>2023-004</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>10.555</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>45998</v>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -948,7 +956,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -956,7 +967,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -970,51 +981,49 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>AWARD-0001</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2023-004</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>2023-005</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>10.553</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>SCHOOL BREAKFAST PROGRAM</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>4000</v>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -1041,12 +1050,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
+      <c r="T6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1054,7 +1066,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1068,51 +1080,49 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>AWARD-0002</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2023-004</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>2023-005</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>10.553</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>SCHOOL BREAKFAST PROGRAM</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>97723</v>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
@@ -1139,12 +1149,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
+      <c r="T7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1152,7 +1165,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1166,51 +1179,49 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>AWARD-0003</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2023-004</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>2023-005</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>10.555</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>196953</v>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
@@ -1237,12 +1248,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
+      <c r="T8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1250,7 +1264,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1264,51 +1278,49 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>AWARD-0004</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2023-004</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>2023-005</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>10.555</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>45998</v>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
@@ -1335,12 +1347,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
+      <c r="T9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U9" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1348,7 +1363,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1362,65 +1377,63 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>AWARD-0001</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2023-005</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>2023-006</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>10.553</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>SCHOOL BREAKFAST PROGRAM</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>4000</v>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N10" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="P10" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1428,9 +1441,9 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="S10" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -1438,7 +1451,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="U10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1446,7 +1462,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1460,65 +1476,63 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>AWARD-0002</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2023-005</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>2023-006</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>10.553</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>SCHOOL BREAKFAST PROGRAM</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>97723</v>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K11" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N11" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="P11" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1526,9 +1540,9 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="S11" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -1536,7 +1550,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="U11" t="b">
+        <v>0</v>
+      </c>
+      <c r="V11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1544,7 +1561,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1558,65 +1575,63 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>AWARD-0003</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2023-005</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>2023-006</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>10.555</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>196953</v>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K12" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N12" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="P12" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1624,9 +1639,9 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="S12" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -1634,7 +1649,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="U12" t="b">
+        <v>0</v>
+      </c>
+      <c r="V12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1642,7 +1660,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1656,65 +1674,63 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>AWARD-0004</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2023-005</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>2023-006</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>10.555</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>45998</v>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K13" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N13" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="P13" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1722,9 +1738,9 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="S13" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -1732,7 +1748,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="U13" t="b">
+        <v>0</v>
+      </c>
+      <c r="V13" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1740,7 +1759,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1754,65 +1773,63 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>AWARD-0001</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2023-006</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>2023-007</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>10.553</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>SCHOOL BREAKFAST PROGRAM</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>4000</v>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K14" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P14" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L14" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q14" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1825,12 +1842,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
+      <c r="T14" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U14" t="b">
+        <v>0</v>
+      </c>
+      <c r="V14" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1838,7 +1858,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1852,65 +1872,63 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>AWARD-0002</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2023-006</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>2023-007</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>10.553</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>SCHOOL BREAKFAST PROGRAM</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>97723</v>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K15" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P15" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1923,12 +1941,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
+      <c r="T15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U15" t="b">
+        <v>0</v>
+      </c>
+      <c r="V15" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1936,7 +1957,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1950,65 +1971,63 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>AWARD-0003</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2023-006</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>2023-007</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>10.555</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>196953</v>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K16" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P16" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -2021,12 +2040,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
+      <c r="T16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U16" t="b">
+        <v>0</v>
+      </c>
+      <c r="V16" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2034,7 +2056,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2048,65 +2070,63 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>AWARD-0004</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2023-006</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>2023-007</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>10.555</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>45998</v>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K17" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P17" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -2119,12 +2139,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
+      <c r="T17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U17" t="b">
+        <v>0</v>
+      </c>
+      <c r="V17" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2132,7 +2155,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -2146,65 +2169,63 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>AWARD-0001</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2023-007</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>2023-008</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>10.553</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>SCHOOL BREAKFAST PROGRAM</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>4000</v>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K18" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N18" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P18" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -2212,9 +2233,9 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="S18" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -2222,7 +2243,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="U18" t="b">
+        <v>0</v>
+      </c>
+      <c r="V18" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2230,7 +2254,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -2244,65 +2268,63 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>AWARD-0002</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2023-007</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>2023-008</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>10.553</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>SCHOOL BREAKFAST PROGRAM</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>97723</v>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K19" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N19" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P19" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -2310,9 +2332,9 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="S19" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -2320,7 +2342,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="U19" t="b">
+        <v>0</v>
+      </c>
+      <c r="V19" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2328,7 +2353,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2342,65 +2367,63 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>AWARD-0003</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2023-007</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>2023-008</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>10.555</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>196953</v>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K20" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N20" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P20" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -2408,9 +2431,9 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="S20" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2418,7 +2441,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="U20" t="b">
+        <v>0</v>
+      </c>
+      <c r="V20" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2426,7 +2452,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2440,65 +2466,63 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>AWARD-0004</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2023-007</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>2023-008</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>10.555</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
         </is>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>45998</v>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K21" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N21" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P21" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2506,9 +2530,9 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="S21" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
@@ -2516,399 +2540,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>26</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2023-06-GSAFAC-0000024938</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>One City Schools, Inc.</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>AWARD-0001</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2023-008</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>10.553</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>OVER-84</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>SCHOOL BREAKFAST PROGRAM</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>4000</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K22" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N22" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P22" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>27</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2023-06-GSAFAC-0000024938</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>One City Schools, Inc.</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>AWARD-0002</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2023-008</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>10.553</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>OVER-84</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>SCHOOL BREAKFAST PROGRAM</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>97723</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K23" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N23" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P23" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>28</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2023-06-GSAFAC-0000024938</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>One City Schools, Inc.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>AWARD-0003</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2023-008</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>10.555</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>OVER-84</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>196953</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K24" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N24" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P24" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>29</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2023-06-GSAFAC-0000024938</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>One City Schools, Inc.</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>AWARD-0004</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2023-008</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>10.555</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>OVER-84</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>45998</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K25" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N25" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P25" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
+      <c r="U21" t="b">
+        <v>0</v>
+      </c>
+      <c r="V21" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2956,14 +2591,6 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C20" r:id="rId38"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId39"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C21" r:id="rId40"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId41"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C22" r:id="rId42"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId43"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C23" r:id="rId44"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId45"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C24" r:id="rId46"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId47"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C25" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2975,7 +2602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2986,24 +2613,25 @@
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="32.4" customWidth="1" min="2" max="2"/>
     <col width="85.2" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="68.39999999999999" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="68.39999999999999" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3024,90 +2652,95 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>award_reference</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>reference_number</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>aln</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>cog_over</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>federal_program_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>amount_expended</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>is_direct</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>is_major</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>is_passthrough_award</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>passthrough_amount</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>is_modified_opinion</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>is_other_matters</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>is_material_weakness</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_significant_deficiency</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>is_other_findings</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>is_questioned_costs</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>is_repeat_finding</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>prior_finding_ref_numbers</t>
         </is>
@@ -3129,37 +2762,37 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>UYLKBRENAPG5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>AWARD-0048</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2023-001</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>12.RD</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>COG-12</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>DEPT OF DEFENSE</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>7614258</v>
       </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>YES</t>
@@ -3170,14 +2803,12 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
         <v>7245395</v>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
       <c r="O2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3188,14 +2819,14 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -3203,12 +2834,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>2022-001</t>
         </is>
@@ -3230,37 +2864,37 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>UYLKBRENAPG5</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>AWARD-0091</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2023-001</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>12.340</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>COG-12</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>NAVAL MEDICAL RESEARCH AND DEVELOPMENT</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>8155134</v>
       </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
           <t>YES</t>
@@ -3271,14 +2905,12 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
         <v>1574643</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
       <c r="O3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3289,14 +2921,14 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="Q3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -3304,12 +2936,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>2022-001</t>
         </is>
@@ -3331,51 +2966,49 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>UYLKBRENAPG5</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>AWARD-0101</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2023-001</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>12.750</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>COG-12</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>UNIFORMED SERVICES UNIVERSITY MEDICAL RESEARCH PROJECTS</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>145337</v>
       </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -3387,14 +3020,14 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="Q4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -3402,12 +3035,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>2022-001</t>
         </is>
@@ -3432,7 +3068,568 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:V5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="4.8" customWidth="1" min="1" max="1"/>
+    <col width="32.4" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="36" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>report_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>auditee_name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>award_reference</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>reference_number</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>aln</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>cog_over</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>federal_program_name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>amount_expended</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_direct</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>is_major</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>is_passthrough_award</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>passthrough_amount</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>is_modified_opinion</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>is_other_matters</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>is_material_weakness</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>is_significant_deficiency</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>is_other_findings</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>is_questioned_costs</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>is_repeat_finding</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>prior_finding_ref_numbers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-06-GSAFAC-0000026504</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Bloomfield College</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>YZBHKVM6C1C9</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>AWARD-0002</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2023-001</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>84.063</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>OVER-84</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>FEDERAL PELL GRANT PROGRAM</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>4429205</v>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>2022-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-06-GSAFAC-0000026504</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Bloomfield College</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>YZBHKVM6C1C9</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>AWARD-0004</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2023-001</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>84.268</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>OVER-84</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>FEDERAL DIRECT STUDENT LOANS</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>6906409</v>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>2022-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-06-GSAFAC-0000026504</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Bloomfield College</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>YZBHKVM6C1C9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>AWARD-0002</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2023-002</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>84.063</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>OVER-84</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>FEDERAL PELL GRANT PROGRAM</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>4429205</v>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-06-GSAFAC-0000026504</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Bloomfield College</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>YZBHKVM6C1C9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>AWARD-0004</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2023-002</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>84.268</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>OVER-84</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>FEDERAL DIRECT STUDENT LOANS</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>6906409</v>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3443,24 +3640,25 @@
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="32.4" customWidth="1" min="2" max="2"/>
     <col width="85.2" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="60" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="60" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3481,90 +3679,95 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>award_reference</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>reference_number</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>aln</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>cog_over</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>federal_program_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>amount_expended</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>is_direct</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>is_major</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>is_passthrough_award</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>passthrough_amount</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>is_modified_opinion</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>is_other_matters</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>is_material_weakness</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_significant_deficiency</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>is_other_findings</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>is_questioned_costs</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>is_repeat_finding</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>prior_finding_ref_numbers</t>
         </is>
@@ -3586,37 +3789,37 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>UYLKBRENAPG5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>AWARD-0582</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2023-001</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>93.279</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>COG-12</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>DRUG ABUSE AND ADDICTION RESEARCH PROGRAMS</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>324268</v>
       </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>YES</t>
@@ -3627,14 +3830,12 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
         <v>159559</v>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
       <c r="O2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3645,14 +3846,14 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -3660,12 +3861,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>2022-001</t>
         </is>
@@ -3687,35 +3891,37 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>UYLKBRENAPG5</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>AWARD-0691</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2023-001</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>93.855</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>COG-12</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>ALLERGY, IMMUNOLOGY AND TRANSPLANTATION RESEARCH</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
@@ -3723,15 +3929,13 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -3743,14 +3947,14 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="Q3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -3758,12 +3962,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>2022-001</t>
         </is>
@@ -3780,13 +3987,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3797,24 +4004,25 @@
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="32.4" customWidth="1" min="2" max="2"/>
     <col width="85.2" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="68.39999999999999" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="68.39999999999999" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3835,90 +4043,95 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>award_reference</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>reference_number</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>aln</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>cog_over</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>federal_program_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>amount_expended</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>is_direct</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>is_major</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>is_passthrough_award</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>passthrough_amount</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>is_modified_opinion</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>is_other_matters</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>is_material_weakness</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_significant_deficiency</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>is_other_findings</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>is_questioned_costs</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>is_repeat_finding</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>prior_finding_ref_numbers</t>
         </is>
@@ -3940,37 +4153,37 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>UYLKBRENAPG5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>AWARD-0048</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2023-001</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>12.RD</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>COG-12</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>DEPT OF DEFENSE</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>7614258</v>
       </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>YES</t>
@@ -3981,14 +4194,12 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
         <v>7245395</v>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
       <c r="O2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3999,14 +4210,14 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -4014,12 +4225,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>2022-001</t>
         </is>
@@ -4041,37 +4255,37 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>UYLKBRENAPG5</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>AWARD-0091</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2023-001</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>12.340</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>COG-12</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>NAVAL MEDICAL RESEARCH AND DEVELOPMENT</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>8155134</v>
       </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
           <t>YES</t>
@@ -4082,14 +4296,12 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
         <v>1574643</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
       <c r="O3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4100,14 +4312,14 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="Q3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -4115,12 +4327,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>2022-001</t>
         </is>
@@ -4142,51 +4357,49 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>UYLKBRENAPG5</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>AWARD-0101</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2023-001</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>12.750</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>COG-12</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>UNIFORMED SERVICES UNIVERSITY MEDICAL RESEARCH PROJECTS</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>145337</v>
       </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -4198,14 +4411,14 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="Q4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -4213,12 +4426,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>2022-001</t>
         </is>
@@ -4240,37 +4456,37 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>UYLKBRENAPG5</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>AWARD-0582</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2023-001</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>93.279</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>COG-12</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>DRUG ABUSE AND ADDICTION RESEARCH PROGRAMS</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>324268</v>
       </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
           <t>YES</t>
@@ -4281,14 +4497,12 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
         <v>159559</v>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
       <c r="O5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4299,14 +4513,14 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="Q5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -4314,12 +4528,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U5" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5" t="inlineStr">
         <is>
           <t>2022-001</t>
         </is>
@@ -4341,35 +4558,37 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>UYLKBRENAPG5</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>AWARD-0691</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2023-001</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>93.855</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>COG-12</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>ALLERGY, IMMUNOLOGY AND TRANSPLANTATION RESEARCH</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
@@ -4377,15 +4596,13 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -4397,14 +4614,14 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="Q6" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -4412,12 +4629,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T6" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U6" t="b">
+        <v>1</v>
+      </c>
+      <c r="V6" t="inlineStr">
         <is>
           <t>2022-001</t>
         </is>
@@ -4440,13 +4660,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4457,24 +4677,25 @@
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="32.4" customWidth="1" min="2" max="2"/>
     <col width="28.8" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="37.2" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="37.2" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4495,90 +4716,95 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>award_reference</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>reference_number</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>aln</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>cog_over</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>federal_program_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>amount_expended</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>is_direct</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>is_major</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>is_passthrough_award</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>passthrough_amount</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>is_modified_opinion</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>is_other_matters</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>is_material_weakness</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_significant_deficiency</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>is_other_findings</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>is_questioned_costs</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>is_repeat_finding</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>prior_finding_ref_numbers</t>
         </is>
@@ -4600,70 +4826,68 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>YZBHKVM6C1C9</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>AWARD-0002</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2023-001</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10.553</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>84.063</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>SCHOOL BREAKFAST PROGRAM</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>97723</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>FEDERAL PELL GRANT PROGRAM</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>4429205</v>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -4671,12 +4895,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>2022-001</t>
         </is>
@@ -4698,70 +4925,68 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>YZBHKVM6C1C9</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>AWARD-0004</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2023-001</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10.555</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>84.268</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>45998</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>FEDERAL DIRECT STUDENT LOANS</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>6906409</v>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -4769,12 +4994,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>2022-001</t>
         </is>
@@ -4796,70 +5024,68 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>YZBHKVM6C1C9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>AWARD-0002</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2023-002</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10.553</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>84.063</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>SCHOOL BREAKFAST PROGRAM</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>97723</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>FEDERAL PELL GRANT PROGRAM</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>4429205</v>
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -4872,7 +5098,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4894,70 +5123,68 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>YZBHKVM6C1C9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>AWARD-0004</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2023-002</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>10.555</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>84.268</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>45998</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>FEDERAL DIRECT STUDENT LOANS</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>6906409</v>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -4970,7 +5197,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4992,70 +5222,68 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>AWARD-0001</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2023-004</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>10.553</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>SCHOOL BREAKFAST PROGRAM</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>4000</v>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O6" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q6" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -5068,7 +5296,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5090,70 +5321,68 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>AWARD-0002</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2023-004</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>10.553</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>SCHOOL BREAKFAST PROGRAM</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>97723</v>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O7" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q7" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -5166,7 +5395,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="U7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5188,70 +5420,68 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>AWARD-0003</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2023-004</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>10.555</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>196953</v>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O8" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q8" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -5264,7 +5494,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="U8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5286,70 +5519,68 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>AWARD-0004</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2023-004</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>10.555</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>45998</v>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O9" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q9" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -5362,7 +5593,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="U9" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5384,65 +5618,63 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>AWARD-0001</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2023-005</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>10.553</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>SCHOOL BREAKFAST PROGRAM</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>4000</v>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N10" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P10" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -5450,17 +5682,20 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="S10" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5482,65 +5717,63 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>AWARD-0002</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2023-005</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>10.553</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>SCHOOL BREAKFAST PROGRAM</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>97723</v>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K11" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N11" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P11" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -5548,17 +5781,20 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="S11" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U11" t="b">
+        <v>0</v>
+      </c>
+      <c r="V11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5580,65 +5816,63 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>AWARD-0003</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2023-005</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>10.555</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>196953</v>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K12" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N12" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P12" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5646,17 +5880,20 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="S12" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U12" t="b">
+        <v>0</v>
+      </c>
+      <c r="V12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5678,65 +5915,63 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>AWARD-0004</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2023-005</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>10.555</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>45998</v>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K13" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N13" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P13" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5744,17 +5979,20 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="S13" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U13" t="b">
+        <v>0</v>
+      </c>
+      <c r="V13" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5776,65 +6014,63 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>AWARD-0001</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>2023-006</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>10.553</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>SCHOOL BREAKFAST PROGRAM</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>4000</v>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K14" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L14" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="P14" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q14" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5852,7 +6088,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="U14" t="b">
+        <v>0</v>
+      </c>
+      <c r="V14" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5874,65 +6113,63 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>AWARD-0002</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2023-006</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>10.553</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>SCHOOL BREAKFAST PROGRAM</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>97723</v>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K15" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="P15" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -5950,7 +6187,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="U15" t="b">
+        <v>0</v>
+      </c>
+      <c r="V15" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5972,65 +6212,63 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>AWARD-0003</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2023-006</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>10.555</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>196953</v>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K16" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="P16" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -6048,7 +6286,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="U16" t="b">
+        <v>0</v>
+      </c>
+      <c r="V16" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6070,65 +6311,63 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>AWARD-0004</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2023-006</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>10.555</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>45998</v>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K17" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="P17" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -6146,7 +6385,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="U17" t="b">
+        <v>0</v>
+      </c>
+      <c r="V17" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6168,65 +6410,63 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>AWARD-0001</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2023-007</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>10.553</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>SCHOOL BREAKFAST PROGRAM</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>4000</v>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K18" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N18" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P18" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -6234,17 +6474,20 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="S18" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U18" t="b">
+        <v>0</v>
+      </c>
+      <c r="V18" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6266,65 +6509,63 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>AWARD-0002</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>2023-007</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>10.553</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>SCHOOL BREAKFAST PROGRAM</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>97723</v>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K19" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N19" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P19" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -6332,17 +6573,20 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="S19" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U19" t="b">
+        <v>0</v>
+      </c>
+      <c r="V19" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6364,65 +6608,63 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>AWARD-0003</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>2023-007</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>10.555</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>196953</v>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K20" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N20" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P20" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -6430,17 +6672,20 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="S20" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U20" t="b">
+        <v>0</v>
+      </c>
+      <c r="V20" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6462,65 +6707,63 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>AWARD-0004</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>2023-007</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>10.555</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
         </is>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>45998</v>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K21" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N21" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P21" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -6528,17 +6771,20 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="S21" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U21" t="b">
+        <v>0</v>
+      </c>
+      <c r="V21" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6560,65 +6806,63 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>AWARD-0001</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>2023-008</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>10.553</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>SCHOOL BREAKFAST PROGRAM</t>
         </is>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>4000</v>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K22" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N22" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P22" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -6636,7 +6880,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="U22" t="b">
+        <v>0</v>
+      </c>
+      <c r="V22" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6658,65 +6905,63 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>AWARD-0002</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>2023-008</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>10.553</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>SCHOOL BREAKFAST PROGRAM</t>
         </is>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>97723</v>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K23" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N23" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P23" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L23" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q23" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -6734,7 +6979,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="U23" t="b">
+        <v>0</v>
+      </c>
+      <c r="V23" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6756,65 +7004,63 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>AWARD-0003</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>2023-008</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>10.555</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
         </is>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>196953</v>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K24" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N24" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P24" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L24" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q24" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -6832,7 +7078,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr">
+      <c r="U24" t="b">
+        <v>0</v>
+      </c>
+      <c r="V24" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -6854,65 +7103,63 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>R1LELA68EHL8</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>AWARD-0004</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>2023-008</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>10.555</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>OVER-84</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
         </is>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>45998</v>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K25" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N25" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P25" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L25" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q25" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -6930,7 +7177,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="inlineStr">
+      <c r="U25" t="b">
+        <v>0</v>
+      </c>
+      <c r="V25" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>

--- a/assets/findings/2024-02-24-findings.xlsx
+++ b/assets/findings/2024-02-24-findings.xlsx
@@ -626,8 +626,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -659,8 +661,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -725,8 +729,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -758,8 +764,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -824,8 +832,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -857,8 +867,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -923,8 +935,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -956,8 +970,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1022,8 +1038,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -1055,8 +1073,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1121,8 +1141,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
@@ -1154,8 +1176,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1220,8 +1244,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
@@ -1253,8 +1279,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1319,8 +1347,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
@@ -1352,8 +1382,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1418,8 +1450,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1451,8 +1485,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1517,8 +1553,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1550,8 +1588,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1616,8 +1656,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1649,8 +1691,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1715,8 +1759,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1748,8 +1794,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1814,8 +1862,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
@@ -1847,8 +1897,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1913,8 +1965,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
@@ -1946,8 +2000,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -2012,8 +2068,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" s="1" t="inlineStr">
         <is>
@@ -2045,8 +2103,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -2111,8 +2171,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
@@ -2144,8 +2206,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -2210,8 +2274,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
@@ -2243,8 +2309,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2309,8 +2377,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
@@ -2342,8 +2412,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2408,8 +2480,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
@@ -2441,8 +2515,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2507,8 +2583,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
@@ -2540,8 +2618,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2803,8 +2883,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>7245395</v>
@@ -2839,8 +2921,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -2905,8 +2989,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N3" t="n">
         <v>1574643</v>
@@ -2941,8 +3027,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -3007,8 +3095,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -3040,8 +3130,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -3269,8 +3361,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -3302,8 +3396,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -3368,8 +3464,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -3401,8 +3499,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -3467,8 +3567,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -3500,8 +3602,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -3566,8 +3670,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -3599,8 +3705,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -3830,8 +3938,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>159559</v>
@@ -3866,8 +3976,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -3919,10 +4031,8 @@
           <t>ALLERGY, IMMUNOLOGY AND TRANSPLANTATION RESEARCH</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="J3" t="n">
+        <v>0</v>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
@@ -3934,8 +4044,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -3967,8 +4079,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -4194,8 +4308,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>7245395</v>
@@ -4230,8 +4346,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -4296,8 +4414,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N3" t="n">
         <v>1574643</v>
@@ -4332,8 +4452,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -4398,8 +4520,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -4431,8 +4555,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -4497,8 +4623,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>1</v>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N5" t="n">
         <v>159559</v>
@@ -4533,8 +4661,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -4586,10 +4716,8 @@
           <t>ALLERGY, IMMUNOLOGY AND TRANSPLANTATION RESEARCH</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="J6" t="n">
+        <v>0</v>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
@@ -4601,8 +4729,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -4634,8 +4764,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -4867,8 +4999,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -4900,8 +5034,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -4966,8 +5102,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -4999,8 +5137,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -5065,8 +5205,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -5098,8 +5240,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -5164,8 +5308,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -5197,8 +5343,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -5263,8 +5411,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -5296,8 +5446,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -5362,8 +5514,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -5395,8 +5549,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -5461,8 +5617,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -5494,8 +5652,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -5560,8 +5720,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -5593,8 +5755,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -5659,8 +5823,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
@@ -5692,8 +5858,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -5758,8 +5926,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
@@ -5791,8 +5961,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -5857,8 +6029,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
@@ -5890,8 +6064,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -5956,8 +6132,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
@@ -5989,8 +6167,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -6055,8 +6235,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -6088,8 +6270,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -6154,8 +6338,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -6187,8 +6373,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -6253,8 +6441,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -6286,8 +6476,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -6352,8 +6544,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -6385,8 +6579,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -6451,8 +6647,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
@@ -6484,8 +6682,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -6550,8 +6750,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
@@ -6583,8 +6785,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -6649,8 +6853,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
@@ -6682,8 +6888,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -6748,8 +6956,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
@@ -6781,8 +6991,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -6847,8 +7059,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
@@ -6880,8 +7094,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>0</v>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -6946,8 +7162,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" s="1" t="inlineStr">
         <is>
@@ -6979,8 +7197,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -7045,8 +7265,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" s="1" t="inlineStr">
         <is>
@@ -7078,8 +7300,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -7144,8 +7368,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" s="1" t="inlineStr">
         <is>
@@ -7177,8 +7403,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
